--- a/系统模块/物理表/用户信息.xlsx
+++ b/系统模块/物理表/用户信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ERP\物理表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ERP\ERP\系统模块\物理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679B924-C981-4BB6-99C3-D3FEB93B9812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C08F82-9048-4199-90D7-EB7829BD4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父组织名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块1访问权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +96,10 @@
   </si>
   <si>
     <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子组织名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +180,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -200,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,7 +491,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -493,141 +501,134 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>

--- a/系统模块/物理表/用户信息.xlsx
+++ b/系统模块/物理表/用户信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ERP\ERP\系统模块\物理表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ERP\物理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C08F82-9048-4199-90D7-EB7829BD4DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679B924-C981-4BB6-99C3-D3FEB93B9812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>父组织名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>模块1访问权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +104,6 @@
   </si>
   <si>
     <t>BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子组织名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,22 +184,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -207,7 +200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,7 +483,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -501,134 +493,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="1"/>
